--- a/contratos/contratos-9-2016.xlsx
+++ b/contratos/contratos-9-2016.xlsx
@@ -913,7 +913,7 @@
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1096,7 +1096,7 @@
     <t>LAMOUROUX ROQUE ANTONIO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1111,7 +1111,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>MENDIETA NICOLAS BERNARDO</t>
@@ -1615,664 +1615,664 @@
     <t>20</t>
   </si>
   <si>
-    <t>5.050,00</t>
-  </si>
-  <si>
-    <t>74.280,00</t>
-  </si>
-  <si>
-    <t>49.200,00</t>
-  </si>
-  <si>
-    <t>70.940,00</t>
-  </si>
-  <si>
-    <t>374.220,00</t>
-  </si>
-  <si>
-    <t>33.600,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>639.572,00</t>
-  </si>
-  <si>
-    <t>68.000,00</t>
-  </si>
-  <si>
-    <t>287.334,00</t>
-  </si>
-  <si>
-    <t>472,90</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>275,76</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>773.405,08</t>
-  </si>
-  <si>
-    <t>456.484,03</t>
-  </si>
-  <si>
-    <t>92.636,00</t>
-  </si>
-  <si>
-    <t>182.423,73</t>
-  </si>
-  <si>
-    <t>10.040,00</t>
-  </si>
-  <si>
-    <t>32.270,00</t>
-  </si>
-  <si>
-    <t>25.944,82</t>
-  </si>
-  <si>
-    <t>16.819,00</t>
-  </si>
-  <si>
-    <t>23.887,75</t>
-  </si>
-  <si>
-    <t>10.805,00</t>
-  </si>
-  <si>
-    <t>25.190,52</t>
-  </si>
-  <si>
-    <t>25.216,00</t>
-  </si>
-  <si>
-    <t>32.800,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>3.550,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>11.550,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>25.650,00</t>
-  </si>
-  <si>
-    <t>79.191,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>35.500,00</t>
-  </si>
-  <si>
-    <t>18.218,53</t>
-  </si>
-  <si>
-    <t>9.588,00</t>
-  </si>
-  <si>
-    <t>1.118,59</t>
-  </si>
-  <si>
-    <t>1.189,50</t>
-  </si>
-  <si>
-    <t>3.928,07</t>
-  </si>
-  <si>
-    <t>8.399,99</t>
-  </si>
-  <si>
-    <t>326.390,31</t>
-  </si>
-  <si>
-    <t>21.540,19</t>
-  </si>
-  <si>
-    <t>312,40</t>
-  </si>
-  <si>
-    <t>1.698,90</t>
-  </si>
-  <si>
-    <t>2.625,13</t>
-  </si>
-  <si>
-    <t>570.000,00</t>
-  </si>
-  <si>
-    <t>8.050,00</t>
-  </si>
-  <si>
-    <t>14.602,00</t>
-  </si>
-  <si>
-    <t>4.542,74</t>
-  </si>
-  <si>
-    <t>8.527,29</t>
-  </si>
-  <si>
-    <t>2.905,52</t>
-  </si>
-  <si>
-    <t>126,00</t>
-  </si>
-  <si>
-    <t>102,53</t>
-  </si>
-  <si>
-    <t>69.712,82</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>40.224,18</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>1.470,00</t>
-  </si>
-  <si>
-    <t>2.532,86</t>
-  </si>
-  <si>
-    <t>852,00</t>
-  </si>
-  <si>
-    <t>5.760,00</t>
-  </si>
-  <si>
-    <t>8.730,00</t>
-  </si>
-  <si>
-    <t>29.764,00</t>
-  </si>
-  <si>
-    <t>30.960,00</t>
-  </si>
-  <si>
-    <t>324.800,00</t>
-  </si>
-  <si>
-    <t>469,84</t>
-  </si>
-  <si>
-    <t>3.736,00</t>
-  </si>
-  <si>
-    <t>835,00</t>
-  </si>
-  <si>
-    <t>1.220,00</t>
-  </si>
-  <si>
-    <t>6.230,00</t>
-  </si>
-  <si>
-    <t>10.693,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>2.820,00</t>
-  </si>
-  <si>
-    <t>4.160,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>605,00</t>
-  </si>
-  <si>
-    <t>7.100,40</t>
-  </si>
-  <si>
-    <t>16.200,00</t>
-  </si>
-  <si>
-    <t>25.230,00</t>
-  </si>
-  <si>
-    <t>10,98</t>
-  </si>
-  <si>
-    <t>1.690,00</t>
-  </si>
-  <si>
-    <t>1.385,00</t>
-  </si>
-  <si>
-    <t>44.486,20</t>
-  </si>
-  <si>
-    <t>1.710,00</t>
-  </si>
-  <si>
-    <t>6.930,00</t>
-  </si>
-  <si>
-    <t>9.080,00</t>
-  </si>
-  <si>
-    <t>2.759,00</t>
-  </si>
-  <si>
-    <t>526.097,59</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>70,27</t>
-  </si>
-  <si>
-    <t>79,72</t>
-  </si>
-  <si>
-    <t>28.238,58</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>1.749,00</t>
-  </si>
-  <si>
-    <t>3.633,00</t>
-  </si>
-  <si>
-    <t>1.905,10</t>
-  </si>
-  <si>
-    <t>12.046,60</t>
-  </si>
-  <si>
-    <t>5.542,08</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>1.880,00</t>
-  </si>
-  <si>
-    <t>14.481,05</t>
-  </si>
-  <si>
-    <t>831,00</t>
-  </si>
-  <si>
-    <t>89.617,99</t>
-  </si>
-  <si>
-    <t>4.753,39</t>
-  </si>
-  <si>
-    <t>7.570,50</t>
-  </si>
-  <si>
-    <t>909,24</t>
-  </si>
-  <si>
-    <t>440,00</t>
-  </si>
-  <si>
-    <t>341,44</t>
-  </si>
-  <si>
-    <t>278,70</t>
-  </si>
-  <si>
-    <t>49.200,54</t>
-  </si>
-  <si>
-    <t>4.218,01</t>
-  </si>
-  <si>
-    <t>7.131,50</t>
-  </si>
-  <si>
-    <t>8.441,76</t>
-  </si>
-  <si>
-    <t>328,60</t>
-  </si>
-  <si>
-    <t>1.505,00</t>
-  </si>
-  <si>
-    <t>12.700,00</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>613,80</t>
-  </si>
-  <si>
-    <t>378,00</t>
-  </si>
-  <si>
-    <t>7.990,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>60.434,00</t>
-  </si>
-  <si>
-    <t>45.386,00</t>
-  </si>
-  <si>
-    <t>6.033,00</t>
-  </si>
-  <si>
-    <t>1.845,00</t>
-  </si>
-  <si>
-    <t>1.738,50</t>
-  </si>
-  <si>
-    <t>4.820,00</t>
-  </si>
-  <si>
-    <t>8.782,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>131.390,00</t>
-  </si>
-  <si>
-    <t>1.495,00</t>
-  </si>
-  <si>
-    <t>1.784,54</t>
-  </si>
-  <si>
-    <t>129,00</t>
-  </si>
-  <si>
-    <t>2.733,28</t>
-  </si>
-  <si>
-    <t>7.635,60</t>
-  </si>
-  <si>
-    <t>2.017,36</t>
-  </si>
-  <si>
-    <t>5.639,64</t>
-  </si>
-  <si>
-    <t>15.320,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>26.716,80</t>
-  </si>
-  <si>
-    <t>3.204,50</t>
-  </si>
-  <si>
-    <t>2.556,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>17.874,50</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>27.240,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>10.700,00</t>
-  </si>
-  <si>
-    <t>6.397,00</t>
-  </si>
-  <si>
-    <t>964,02</t>
-  </si>
-  <si>
-    <t>4.622,00</t>
-  </si>
-  <si>
-    <t>10.638,00</t>
-  </si>
-  <si>
-    <t>322,00</t>
-  </si>
-  <si>
-    <t>7.750,00</t>
-  </si>
-  <si>
-    <t>12.720,00</t>
-  </si>
-  <si>
-    <t>1.720,00</t>
-  </si>
-  <si>
-    <t>1.029,92</t>
-  </si>
-  <si>
-    <t>22.400,20</t>
-  </si>
-  <si>
-    <t>1.182,00</t>
-  </si>
-  <si>
-    <t>1.337,18</t>
-  </si>
-  <si>
-    <t>1.308,00</t>
-  </si>
-  <si>
-    <t>46.670,70</t>
-  </si>
-  <si>
-    <t>28.285,00</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>7.644,30</t>
-  </si>
-  <si>
-    <t>14.112,50</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>4.280,00</t>
-  </si>
-  <si>
-    <t>18.905,00</t>
-  </si>
-  <si>
-    <t>2.886,76</t>
-  </si>
-  <si>
-    <t>4.685,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>4.522,62</t>
-  </si>
-  <si>
-    <t>216,86</t>
-  </si>
-  <si>
-    <t>25.900,00</t>
-  </si>
-  <si>
-    <t>105.000,00</t>
-  </si>
-  <si>
-    <t>127.500,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>269.000,00</t>
-  </si>
-  <si>
-    <t>333.000,00</t>
-  </si>
-  <si>
-    <t>155.000,00</t>
-  </si>
-  <si>
-    <t>146.481,60</t>
-  </si>
-  <si>
-    <t>49.968,24</t>
-  </si>
-  <si>
-    <t>17.143,30</t>
-  </si>
-  <si>
-    <t>34.880,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>16.899,00</t>
-  </si>
-  <si>
-    <t>41.967,28</t>
-  </si>
-  <si>
-    <t>415,64</t>
-  </si>
-  <si>
-    <t>20.540,18</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>9.680,00</t>
-  </si>
-  <si>
-    <t>44.600,00</t>
-  </si>
-  <si>
-    <t>651.900,00</t>
-  </si>
-  <si>
-    <t>22.300,00</t>
-  </si>
-  <si>
-    <t>295,00</t>
+    <t>5050.00</t>
+  </si>
+  <si>
+    <t>74280.00</t>
+  </si>
+  <si>
+    <t>49200.00</t>
+  </si>
+  <si>
+    <t>70940.00</t>
+  </si>
+  <si>
+    <t>374220.00</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>639572.00</t>
+  </si>
+  <si>
+    <t>68000.00</t>
+  </si>
+  <si>
+    <t>287334.00</t>
+  </si>
+  <si>
+    <t>472.90</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>275.76</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>773405.08</t>
+  </si>
+  <si>
+    <t>456484.03</t>
+  </si>
+  <si>
+    <t>92636.00</t>
+  </si>
+  <si>
+    <t>182423.73</t>
+  </si>
+  <si>
+    <t>10040.00</t>
+  </si>
+  <si>
+    <t>32270.00</t>
+  </si>
+  <si>
+    <t>25944.82</t>
+  </si>
+  <si>
+    <t>16819.00</t>
+  </si>
+  <si>
+    <t>23887.75</t>
+  </si>
+  <si>
+    <t>10805.00</t>
+  </si>
+  <si>
+    <t>25190.52</t>
+  </si>
+  <si>
+    <t>25216.00</t>
+  </si>
+  <si>
+    <t>32800.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>3550.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>11550.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>25650.00</t>
+  </si>
+  <si>
+    <t>79191.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>35500.00</t>
+  </si>
+  <si>
+    <t>18218.53</t>
+  </si>
+  <si>
+    <t>9588.00</t>
+  </si>
+  <si>
+    <t>1118.59</t>
+  </si>
+  <si>
+    <t>1189.50</t>
+  </si>
+  <si>
+    <t>3928.07</t>
+  </si>
+  <si>
+    <t>8399.99</t>
+  </si>
+  <si>
+    <t>326390.31</t>
+  </si>
+  <si>
+    <t>21540.19</t>
+  </si>
+  <si>
+    <t>312.40</t>
+  </si>
+  <si>
+    <t>1698.90</t>
+  </si>
+  <si>
+    <t>2625.13</t>
+  </si>
+  <si>
+    <t>570000.00</t>
+  </si>
+  <si>
+    <t>8050.00</t>
+  </si>
+  <si>
+    <t>14602.00</t>
+  </si>
+  <si>
+    <t>4542.74</t>
+  </si>
+  <si>
+    <t>8527.29</t>
+  </si>
+  <si>
+    <t>2905.52</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>102.53</t>
+  </si>
+  <si>
+    <t>69712.82</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>40224.18</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>1470.00</t>
+  </si>
+  <si>
+    <t>2532.86</t>
+  </si>
+  <si>
+    <t>852.00</t>
+  </si>
+  <si>
+    <t>5760.00</t>
+  </si>
+  <si>
+    <t>8730.00</t>
+  </si>
+  <si>
+    <t>29764.00</t>
+  </si>
+  <si>
+    <t>30960.00</t>
+  </si>
+  <si>
+    <t>324800.00</t>
+  </si>
+  <si>
+    <t>469.84</t>
+  </si>
+  <si>
+    <t>3736.00</t>
+  </si>
+  <si>
+    <t>835.00</t>
+  </si>
+  <si>
+    <t>1220.00</t>
+  </si>
+  <si>
+    <t>6230.00</t>
+  </si>
+  <si>
+    <t>10693.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>2820.00</t>
+  </si>
+  <si>
+    <t>4160.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>605.00</t>
+  </si>
+  <si>
+    <t>7100.40</t>
+  </si>
+  <si>
+    <t>16200.00</t>
+  </si>
+  <si>
+    <t>25230.00</t>
+  </si>
+  <si>
+    <t>10.98</t>
+  </si>
+  <si>
+    <t>1690.00</t>
+  </si>
+  <si>
+    <t>1385.00</t>
+  </si>
+  <si>
+    <t>44486.20</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>6930.00</t>
+  </si>
+  <si>
+    <t>9080.00</t>
+  </si>
+  <si>
+    <t>2759.00</t>
+  </si>
+  <si>
+    <t>526097.59</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>70.27</t>
+  </si>
+  <si>
+    <t>79.72</t>
+  </si>
+  <si>
+    <t>28238.58</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>1749.00</t>
+  </si>
+  <si>
+    <t>3633.00</t>
+  </si>
+  <si>
+    <t>1905.10</t>
+  </si>
+  <si>
+    <t>12046.60</t>
+  </si>
+  <si>
+    <t>5542.08</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>1880.00</t>
+  </si>
+  <si>
+    <t>14481.05</t>
+  </si>
+  <si>
+    <t>831.00</t>
+  </si>
+  <si>
+    <t>89617.99</t>
+  </si>
+  <si>
+    <t>4753.39</t>
+  </si>
+  <si>
+    <t>7570.50</t>
+  </si>
+  <si>
+    <t>909.24</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>341.44</t>
+  </si>
+  <si>
+    <t>278.70</t>
+  </si>
+  <si>
+    <t>49200.54</t>
+  </si>
+  <si>
+    <t>4218.01</t>
+  </si>
+  <si>
+    <t>7131.50</t>
+  </si>
+  <si>
+    <t>8441.76</t>
+  </si>
+  <si>
+    <t>328.60</t>
+  </si>
+  <si>
+    <t>1505.00</t>
+  </si>
+  <si>
+    <t>12700.00</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>613.80</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>7990.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>60434.00</t>
+  </si>
+  <si>
+    <t>45386.00</t>
+  </si>
+  <si>
+    <t>6033.00</t>
+  </si>
+  <si>
+    <t>1845.00</t>
+  </si>
+  <si>
+    <t>1738.50</t>
+  </si>
+  <si>
+    <t>4820.00</t>
+  </si>
+  <si>
+    <t>8782.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>131390.00</t>
+  </si>
+  <si>
+    <t>1495.00</t>
+  </si>
+  <si>
+    <t>1784.54</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>2733.28</t>
+  </si>
+  <si>
+    <t>7635.60</t>
+  </si>
+  <si>
+    <t>2017.36</t>
+  </si>
+  <si>
+    <t>5639.64</t>
+  </si>
+  <si>
+    <t>15320.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>26716.80</t>
+  </si>
+  <si>
+    <t>3204.50</t>
+  </si>
+  <si>
+    <t>2556.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>17874.50</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>27240.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>10700.00</t>
+  </si>
+  <si>
+    <t>6397.00</t>
+  </si>
+  <si>
+    <t>964.02</t>
+  </si>
+  <si>
+    <t>4622.00</t>
+  </si>
+  <si>
+    <t>10638.00</t>
+  </si>
+  <si>
+    <t>322.00</t>
+  </si>
+  <si>
+    <t>7750.00</t>
+  </si>
+  <si>
+    <t>12720.00</t>
+  </si>
+  <si>
+    <t>1720.00</t>
+  </si>
+  <si>
+    <t>1029.92</t>
+  </si>
+  <si>
+    <t>22400.20</t>
+  </si>
+  <si>
+    <t>1182.00</t>
+  </si>
+  <si>
+    <t>1337.18</t>
+  </si>
+  <si>
+    <t>1308.00</t>
+  </si>
+  <si>
+    <t>46670.70</t>
+  </si>
+  <si>
+    <t>28285.00</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>7644.30</t>
+  </si>
+  <si>
+    <t>14112.50</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>4280.00</t>
+  </si>
+  <si>
+    <t>18905.00</t>
+  </si>
+  <si>
+    <t>2886.76</t>
+  </si>
+  <si>
+    <t>4685.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>4522.62</t>
+  </si>
+  <si>
+    <t>216.86</t>
+  </si>
+  <si>
+    <t>25900.00</t>
+  </si>
+  <si>
+    <t>105000.00</t>
+  </si>
+  <si>
+    <t>127500.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>269000.00</t>
+  </si>
+  <si>
+    <t>333000.00</t>
+  </si>
+  <si>
+    <t>155000.00</t>
+  </si>
+  <si>
+    <t>146481.60</t>
+  </si>
+  <si>
+    <t>49968.24</t>
+  </si>
+  <si>
+    <t>17143.30</t>
+  </si>
+  <si>
+    <t>34880.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>16899.00</t>
+  </si>
+  <si>
+    <t>41967.28</t>
+  </si>
+  <si>
+    <t>415.64</t>
+  </si>
+  <si>
+    <t>20540.18</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>9680.00</t>
+  </si>
+  <si>
+    <t>44600.00</t>
+  </si>
+  <si>
+    <t>651900.00</t>
+  </si>
+  <si>
+    <t>22300.00</t>
+  </si>
+  <si>
+    <t>295.00</t>
   </si>
 </sst>
 </file>
